--- a/辅助总表/经济数值总表.xlsx
+++ b/辅助总表/经济数值总表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="20140" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="20140" tabRatio="500" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="标准数值" sheetId="4" r:id="rId1"/>
@@ -4085,7 +4085,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <f>B$2^C7*B$1</f>
+        <f t="shared" ref="B7:B38" si="1">B$2^C7*B$1</f>
         <v>0.32990965035686459</v>
       </c>
       <c r="C7">
@@ -4142,7 +4142,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <f>B$2^C8*B$1</f>
+        <f t="shared" si="1"/>
         <v>0.35359716325248752</v>
       </c>
       <c r="C8">
@@ -4196,7 +4196,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <f>B$2^C9*B$1</f>
+        <f t="shared" si="1"/>
         <v>0.37898543957401615</v>
       </c>
       <c r="C9">
@@ -4253,7 +4253,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <f>B$2^C10*B$1</f>
+        <f t="shared" si="1"/>
         <v>0.40619659413543058</v>
       </c>
       <c r="C10">
@@ -4310,7 +4310,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <f>B$2^C11*B$1</f>
+        <f t="shared" si="1"/>
         <v>0.4353615095943546</v>
       </c>
       <c r="C11">
@@ -4367,7 +4367,7 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <f>B$2^C12*B$1</f>
+        <f t="shared" si="1"/>
         <v>0.46662046598322932</v>
       </c>
       <c r="C12">
@@ -4421,7 +4421,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <f>B$2^C13*B$1</f>
+        <f t="shared" si="1"/>
         <v>0.50012381544082529</v>
       </c>
       <c r="C13">
@@ -4487,7 +4487,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <f>B$2^C14*B$1</f>
+        <f t="shared" si="1"/>
         <v>0.53603270538947656</v>
       </c>
       <c r="C14">
@@ -4544,7 +4544,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <f>B$2^C15*B$1</f>
+        <f t="shared" si="1"/>
         <v>0.57451985363644109</v>
       </c>
       <c r="C15">
@@ -4604,7 +4604,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <f>B$2^C16*B$1</f>
+        <f t="shared" si="1"/>
         <v>0.61577037912753763</v>
       </c>
       <c r="C16">
@@ -4677,7 +4677,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <f>B$2^C17*B$1</f>
+        <f t="shared" si="1"/>
         <v>0.65998269234889495</v>
       </c>
       <c r="C17">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="X17">
-        <f t="shared" ref="X17:X23" si="1">(V17-V16)*(W17+1)+X16</f>
+        <f t="shared" ref="X17:X23" si="2">(V17-V16)*(W17+1)+X16</f>
         <v>7</v>
       </c>
     </row>
@@ -4750,7 +4750,7 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <f>B$2^C18*B$1</f>
+        <f t="shared" si="1"/>
         <v>0.70736944965954573</v>
       </c>
       <c r="C18">
@@ -4802,7 +4802,7 @@
         <v>50</v>
       </c>
       <c r="U18">
-        <f t="shared" ref="U18:U23" si="2">U17*2</f>
+        <f t="shared" ref="U18:U23" si="3">U17*2</f>
         <v>8</v>
       </c>
       <c r="V18">
@@ -4812,7 +4812,7 @@
         <v>0.5</v>
       </c>
       <c r="X18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <f>B$2^C19*B$1</f>
+        <f t="shared" si="1"/>
         <v>0.75815857614510129</v>
       </c>
       <c r="C19">
@@ -4876,7 +4876,7 @@
         <v>60</v>
       </c>
       <c r="U19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="V19">
@@ -4886,7 +4886,7 @@
         <v>0.1</v>
       </c>
       <c r="X19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.9</v>
       </c>
     </row>
@@ -4895,7 +4895,7 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <f>B$2^C20*B$1</f>
+        <f t="shared" si="1"/>
         <v>0.8125943619123196</v>
       </c>
       <c r="C20">
@@ -4947,7 +4947,7 @@
         <v>70</v>
       </c>
       <c r="U20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="V20">
@@ -4955,7 +4955,7 @@
         <v>26</v>
       </c>
       <c r="X20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.9</v>
       </c>
     </row>
@@ -4964,7 +4964,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <f>B$2^C21*B$1</f>
+        <f t="shared" si="1"/>
         <v>0.87093863709762431</v>
       </c>
       <c r="C21">
@@ -5016,7 +5016,7 @@
         <v>80</v>
       </c>
       <c r="U21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="V21">
@@ -5024,7 +5024,7 @@
         <v>58</v>
       </c>
       <c r="X21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63.9</v>
       </c>
     </row>
@@ -5033,7 +5033,7 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <f>B$2^C22*B$1</f>
+        <f t="shared" si="1"/>
         <v>0.9334720312412339</v>
       </c>
       <c r="C22">
@@ -5085,7 +5085,7 @@
         <v>90</v>
       </c>
       <c r="U22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="V22">
@@ -5093,7 +5093,7 @@
         <v>122</v>
       </c>
       <c r="X22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>127.9</v>
       </c>
     </row>
@@ -5102,7 +5102,7 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <f>B$2^C23*B$1</f>
+        <f t="shared" si="1"/>
         <v>1.0004953230843547</v>
       </c>
       <c r="C23">
@@ -5154,7 +5154,7 @@
         <v>100</v>
       </c>
       <c r="U23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="V23">
@@ -5162,7 +5162,7 @@
         <v>250</v>
       </c>
       <c r="X23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>255.9</v>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <f>B$2^C24*B$1</f>
+        <f t="shared" si="1"/>
         <v>1.0723308872818116</v>
       </c>
       <c r="C24">
@@ -5225,7 +5225,7 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <f>B$2^C25*B$1</f>
+        <f t="shared" si="1"/>
         <v>1.1493242449886456</v>
       </c>
       <c r="C25">
@@ -5279,7 +5279,7 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <f>B$2^C26*B$1</f>
+        <f t="shared" si="1"/>
         <v>1.2318457257788307</v>
       </c>
       <c r="C26">
@@ -5333,7 +5333,7 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <f>B$2^C27*B$1</f>
+        <f t="shared" si="1"/>
         <v>1.3202922488897511</v>
       </c>
       <c r="C27">
@@ -5387,7 +5387,7 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <f>B$2^C28*B$1</f>
+        <f t="shared" si="1"/>
         <v>1.4150892323600353</v>
       </c>
       <c r="C28">
@@ -5441,7 +5441,7 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <f>B$2^C29*B$1</f>
+        <f t="shared" si="1"/>
         <v>1.5166926392434861</v>
       </c>
       <c r="C29">
@@ -5495,7 +5495,7 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <f>B$2^C30*B$1</f>
+        <f t="shared" si="1"/>
         <v>1.6255911707411685</v>
       </c>
       <c r="C30">
@@ -5549,7 +5549,7 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <f>B$2^C31*B$1</f>
+        <f t="shared" si="1"/>
         <v>1.7423086168003847</v>
       </c>
       <c r="C31">
@@ -5603,7 +5603,7 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <f>B$2^C32*B$1</f>
+        <f t="shared" si="1"/>
         <v>1.8674063754866526</v>
       </c>
       <c r="C32">
@@ -5657,7 +5657,7 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <f>B$2^C33*B$1</f>
+        <f t="shared" si="1"/>
         <v>2.0014861532465944</v>
       </c>
       <c r="C33">
@@ -5711,7 +5711,7 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <f>B$2^C34*B$1</f>
+        <f t="shared" si="1"/>
         <v>2.1451928590497005</v>
       </c>
       <c r="C34">
@@ -5765,7 +5765,7 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <f>B$2^C35*B$1</f>
+        <f t="shared" si="1"/>
         <v>2.2992177063294692</v>
       </c>
       <c r="C35">
@@ -5819,7 +5819,7 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <f>B$2^C36*B$1</f>
+        <f t="shared" si="1"/>
         <v>2.4643015376439252</v>
       </c>
       <c r="C36">
@@ -5873,7 +5873,7 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <f>B$2^C37*B$1</f>
+        <f t="shared" si="1"/>
         <v>2.6412383880467596</v>
       </c>
       <c r="C37">
@@ -5927,7 +5927,7 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <f>B$2^C38*B$1</f>
+        <f t="shared" si="1"/>
         <v>2.830879304308517</v>
       </c>
       <c r="C38">
@@ -5981,7 +5981,7 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <f>B$2^C39*B$1</f>
+        <f t="shared" ref="B39:B70" si="4">B$2^C39*B$1</f>
         <v>3.0341364383578693</v>
       </c>
       <c r="C39">
@@ -6035,7 +6035,7 @@
         <v>37</v>
       </c>
       <c r="B40">
-        <f>B$2^C40*B$1</f>
+        <f t="shared" si="4"/>
         <v>3.2519874346319648</v>
       </c>
       <c r="C40">
@@ -6089,7 +6089,7 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <f>B$2^C41*B$1</f>
+        <f t="shared" si="4"/>
         <v>3.48548013243854</v>
       </c>
       <c r="C41">
@@ -6143,7 +6143,7 @@
         <v>39</v>
       </c>
       <c r="B42">
-        <f>B$2^C42*B$1</f>
+        <f t="shared" si="4"/>
         <v>3.7357376059476279</v>
       </c>
       <c r="C42">
@@ -6197,7 +6197,7 @@
         <v>40</v>
       </c>
       <c r="B43">
-        <f>B$2^C43*B$1</f>
+        <f t="shared" si="4"/>
         <v>4.0039635660546686</v>
       </c>
       <c r="C43">
@@ -6251,7 +6251,7 @@
         <v>41</v>
       </c>
       <c r="B44">
-        <f>B$2^C44*B$1</f>
+        <f t="shared" si="4"/>
         <v>4.2914481500973949</v>
       </c>
       <c r="C44">
@@ -6305,7 +6305,7 @@
         <v>42</v>
       </c>
       <c r="B45">
-        <f>B$2^C45*B$1</f>
+        <f t="shared" si="4"/>
         <v>4.599574127274388</v>
       </c>
       <c r="C45">
@@ -6359,7 +6359,7 @@
         <v>43</v>
       </c>
       <c r="B46">
-        <f>B$2^C46*B$1</f>
+        <f t="shared" si="4"/>
         <v>4.9298235496126894</v>
       </c>
       <c r="C46">
@@ -6413,7 +6413,7 @@
         <v>44</v>
       </c>
       <c r="B47">
-        <f>B$2^C47*B$1</f>
+        <f t="shared" si="4"/>
         <v>5.2837848804748822</v>
       </c>
       <c r="C47">
@@ -6467,7 +6467,7 @@
         <v>45</v>
       </c>
       <c r="B48">
-        <f>B$2^C48*B$1</f>
+        <f t="shared" si="4"/>
         <v>5.6631606348929786</v>
       </c>
       <c r="C48">
@@ -6521,7 +6521,7 @@
         <v>46</v>
       </c>
       <c r="B49">
-        <f>B$2^C49*B$1</f>
+        <f t="shared" si="4"/>
         <v>6.0697755684782955</v>
       </c>
       <c r="C49">
@@ -6575,7 +6575,7 @@
         <v>47</v>
       </c>
       <c r="B50">
-        <f>B$2^C50*B$1</f>
+        <f t="shared" si="4"/>
         <v>6.5055854542950389</v>
       </c>
       <c r="C50">
@@ -6629,7 +6629,7 @@
         <v>48</v>
       </c>
       <c r="B51">
-        <f>B$2^C51*B$1</f>
+        <f t="shared" si="4"/>
         <v>6.972686489913424</v>
       </c>
       <c r="C51">
@@ -6683,7 +6683,7 @@
         <v>49</v>
       </c>
       <c r="B52">
-        <f>B$2^C52*B$1</f>
+        <f t="shared" si="4"/>
         <v>7.4733253798892081</v>
       </c>
       <c r="C52">
@@ -6737,7 +6737,7 @@
         <v>50</v>
       </c>
       <c r="B53">
-        <f>B$2^C53*B$1</f>
+        <f t="shared" si="4"/>
         <v>8.0099101421652552</v>
       </c>
       <c r="C53">
@@ -6791,7 +6791,7 @@
         <v>51</v>
       </c>
       <c r="B54">
-        <f>B$2^C54*B$1</f>
+        <f t="shared" si="4"/>
         <v>8.5850216903727219</v>
       </c>
       <c r="C54">
@@ -6845,7 +6845,7 @@
         <v>52</v>
       </c>
       <c r="B55">
-        <f>B$2^C55*B$1</f>
+        <f t="shared" si="4"/>
         <v>9.2014262477414857</v>
       </c>
       <c r="C55">
@@ -6899,7 +6899,7 @@
         <v>53</v>
       </c>
       <c r="B56">
-        <f>B$2^C56*B$1</f>
+        <f t="shared" si="4"/>
         <v>9.8620886523293265</v>
       </c>
       <c r="C56">
@@ -6953,7 +6953,7 @@
         <v>54</v>
       </c>
       <c r="B57">
-        <f>B$2^C57*B$1</f>
+        <f t="shared" si="4"/>
         <v>10.57018661756657</v>
       </c>
       <c r="C57">
@@ -7007,7 +7007,7 @@
         <v>55</v>
       </c>
       <c r="B58">
-        <f>B$2^C58*B$1</f>
+        <f t="shared" si="4"/>
         <v>11.329126016707853</v>
       </c>
       <c r="C58">
@@ -7061,7 +7061,7 @@
         <v>56</v>
       </c>
       <c r="B59">
-        <f>B$2^C59*B$1</f>
+        <f t="shared" si="4"/>
         <v>12.142557264707481</v>
       </c>
       <c r="C59">
@@ -7115,7 +7115,7 @@
         <v>57</v>
       </c>
       <c r="B60">
-        <f>B$2^C60*B$1</f>
+        <f t="shared" si="4"/>
         <v>13.014392876313478</v>
       </c>
       <c r="C60">
@@ -7169,7 +7169,7 @@
         <v>58</v>
       </c>
       <c r="B61">
-        <f>B$2^C61*B$1</f>
+        <f t="shared" si="4"/>
         <v>13.948826284832789</v>
       </c>
       <c r="C61">
@@ -7223,7 +7223,7 @@
         <v>59</v>
       </c>
       <c r="B62">
-        <f>B$2^C62*B$1</f>
+        <f t="shared" si="4"/>
         <v>14.950352012083785</v>
       </c>
       <c r="C62">
@@ -7277,7 +7277,7 @@
         <v>60</v>
       </c>
       <c r="B63">
-        <f>B$2^C63*B$1</f>
+        <f t="shared" si="4"/>
         <v>16.023787286551403</v>
       </c>
       <c r="C63">
@@ -7331,7 +7331,7 @@
         <v>61</v>
       </c>
       <c r="B64">
-        <f>B$2^C64*B$1</f>
+        <f t="shared" si="4"/>
         <v>17.174295213725795</v>
       </c>
       <c r="C64">
@@ -7385,7 +7385,7 @@
         <v>62</v>
       </c>
       <c r="B65">
-        <f>B$2^C65*B$1</f>
+        <f t="shared" si="4"/>
         <v>18.407409610071308</v>
       </c>
       <c r="C65">
@@ -7439,7 +7439,7 @@
         <v>63</v>
       </c>
       <c r="B66">
-        <f>B$2^C66*B$1</f>
+        <f t="shared" si="4"/>
         <v>19.729061620074436</v>
       </c>
       <c r="C66">
@@ -7493,7 +7493,7 @@
         <v>64</v>
       </c>
       <c r="B67">
-        <f>B$2^C67*B$1</f>
+        <f t="shared" si="4"/>
         <v>21.145608244395781</v>
       </c>
       <c r="C67">
@@ -7547,7 +7547,7 @@
         <v>65</v>
       </c>
       <c r="B68">
-        <f>B$2^C68*B$1</f>
+        <f t="shared" si="4"/>
         <v>22.663862916343401</v>
       </c>
       <c r="C68">
@@ -7601,7 +7601,7 @@
         <v>66</v>
       </c>
       <c r="B69">
-        <f>B$2^C69*B$1</f>
+        <f t="shared" si="4"/>
         <v>24.291128273736859</v>
       </c>
       <c r="C69">
@@ -7655,7 +7655,7 @@
         <v>67</v>
       </c>
       <c r="B70">
-        <f>B$2^C70*B$1</f>
+        <f t="shared" si="4"/>
         <v>26.03523128379117</v>
       </c>
       <c r="C70">
@@ -7709,7 +7709,7 @@
         <v>68</v>
       </c>
       <c r="B71">
-        <f>B$2^C71*B$1</f>
+        <f t="shared" ref="B71:B102" si="5">B$2^C71*B$1</f>
         <v>27.904560889967382</v>
       </c>
       <c r="C71">
@@ -7763,7 +7763,7 @@
         <v>69</v>
       </c>
       <c r="B72">
-        <f>B$2^C72*B$1</f>
+        <f t="shared" si="5"/>
         <v>29.908108361867043</v>
       </c>
       <c r="C72">
@@ -7817,7 +7817,7 @@
         <v>70</v>
       </c>
       <c r="B73">
-        <f>B$2^C73*B$1</f>
+        <f t="shared" si="5"/>
         <v>32.055510542249102</v>
       </c>
       <c r="C73">
@@ -7871,7 +7871,7 @@
         <v>71</v>
       </c>
       <c r="B74">
-        <f>B$2^C74*B$1</f>
+        <f t="shared" si="5"/>
         <v>34.357096199182592</v>
       </c>
       <c r="C74">
@@ -7925,7 +7925,7 @@
         <v>72</v>
       </c>
       <c r="B75">
-        <f>B$2^C75*B$1</f>
+        <f t="shared" si="5"/>
         <v>36.823935706283912</v>
       </c>
       <c r="C75">
@@ -7979,7 +7979,7 @@
         <v>73</v>
       </c>
       <c r="B76">
-        <f>B$2^C76*B$1</f>
+        <f t="shared" si="5"/>
         <v>39.467894289995101</v>
       </c>
       <c r="C76">
@@ -8033,7 +8033,7 @@
         <v>74</v>
       </c>
       <c r="B77">
-        <f>B$2^C77*B$1</f>
+        <f t="shared" si="5"/>
         <v>42.301689100016759</v>
       </c>
       <c r="C77">
@@ -8087,7 +8087,7 @@
         <v>75</v>
       </c>
       <c r="B78">
-        <f>B$2^C78*B$1</f>
+        <f t="shared" si="5"/>
         <v>45.338950377397964</v>
       </c>
       <c r="C78">
@@ -8141,7 +8141,7 @@
         <v>76</v>
       </c>
       <c r="B79">
-        <f>B$2^C79*B$1</f>
+        <f t="shared" si="5"/>
         <v>48.594287014495144</v>
       </c>
       <c r="C79">
@@ -8195,7 +8195,7 @@
         <v>77</v>
       </c>
       <c r="B80">
-        <f>B$2^C80*B$1</f>
+        <f t="shared" si="5"/>
         <v>52.083356822135904</v>
       </c>
       <c r="C80">
@@ -8249,7 +8249,7 @@
         <v>78</v>
       </c>
       <c r="B81">
-        <f>B$2^C81*B$1</f>
+        <f t="shared" si="5"/>
         <v>55.822941841965267</v>
       </c>
       <c r="C81">
@@ -8303,7 +8303,7 @@
         <v>79</v>
       </c>
       <c r="B82">
-        <f>B$2^C82*B$1</f>
+        <f t="shared" si="5"/>
         <v>59.831029066218385</v>
       </c>
       <c r="C82">
@@ -8357,7 +8357,7 @@
         <v>80</v>
       </c>
       <c r="B83">
-        <f>B$2^C83*B$1</f>
+        <f t="shared" si="5"/>
         <v>64.126896953172889</v>
       </c>
       <c r="C83">
@@ -8411,7 +8411,7 @@
         <v>81</v>
       </c>
       <c r="B84">
-        <f>B$2^C84*B$1</f>
+        <f t="shared" si="5"/>
         <v>68.731208154410695</v>
       </c>
       <c r="C84">
@@ -8465,7 +8465,7 @@
         <v>82</v>
       </c>
       <c r="B85">
-        <f>B$2^C85*B$1</f>
+        <f t="shared" si="5"/>
         <v>73.666108899897395</v>
       </c>
       <c r="C85">
@@ -8519,7 +8519,7 @@
         <v>83</v>
       </c>
       <c r="B86">
-        <f>B$2^C86*B$1</f>
+        <f t="shared" si="5"/>
         <v>78.955335518910047</v>
       </c>
       <c r="C86">
@@ -8573,7 +8573,7 @@
         <v>84</v>
       </c>
       <c r="B87">
-        <f>B$2^C87*B$1</f>
+        <f t="shared" si="5"/>
         <v>84.624328609167804</v>
       </c>
       <c r="C87">
@@ -8627,7 +8627,7 @@
         <v>85</v>
       </c>
       <c r="B88">
-        <f>B$2^C88*B$1</f>
+        <f t="shared" si="5"/>
         <v>90.700355403306077</v>
       </c>
       <c r="C88">
@@ -8681,7 +8681,7 @@
         <v>86</v>
       </c>
       <c r="B89">
-        <f>B$2^C89*B$1</f>
+        <f t="shared" si="5"/>
         <v>97.212640921263443</v>
       </c>
       <c r="C89">
@@ -8735,7 +8735,7 @@
         <v>87</v>
       </c>
       <c r="B90">
-        <f>B$2^C90*B$1</f>
+        <f t="shared" si="5"/>
         <v>104.19250853941018</v>
       </c>
       <c r="C90">
@@ -8789,7 +8789,7 @@
         <v>88</v>
       </c>
       <c r="B91">
-        <f>B$2^C91*B$1</f>
+        <f t="shared" si="5"/>
         <v>111.67353065253987</v>
       </c>
       <c r="C91">
@@ -8843,7 +8843,7 @@
         <v>89</v>
       </c>
       <c r="B92">
-        <f>B$2^C92*B$1</f>
+        <f t="shared" si="5"/>
         <v>119.69169015339223</v>
       </c>
       <c r="C92">
@@ -8897,7 +8897,7 @@
         <v>90</v>
       </c>
       <c r="B93">
-        <f>B$2^C93*B$1</f>
+        <f t="shared" si="5"/>
         <v>128.28555350640582</v>
       </c>
       <c r="C93">
@@ -8951,7 +8951,7 @@
         <v>91</v>
       </c>
       <c r="B94">
-        <f>B$2^C94*B$1</f>
+        <f t="shared" si="5"/>
         <v>137.49645624816577</v>
       </c>
       <c r="C94">
@@ -9005,7 +9005,7 @@
         <v>92</v>
       </c>
       <c r="B95">
-        <f>B$2^C95*B$1</f>
+        <f t="shared" si="5"/>
         <v>147.36870180678409</v>
       </c>
       <c r="C95">
@@ -9059,7 +9059,7 @@
         <v>93</v>
       </c>
       <c r="B96">
-        <f>B$2^C96*B$1</f>
+        <f t="shared" si="5"/>
         <v>157.94977459651122</v>
       </c>
       <c r="C96">
@@ -9113,7 +9113,7 @@
         <v>94</v>
       </c>
       <c r="B97">
-        <f>B$2^C97*B$1</f>
+        <f t="shared" si="5"/>
         <v>169.29056841254075</v>
       </c>
       <c r="C97">
@@ -9167,7 +9167,7 @@
         <v>95</v>
       </c>
       <c r="B98">
-        <f>B$2^C98*B$1</f>
+        <f t="shared" si="5"/>
         <v>181.44563122456123</v>
       </c>
       <c r="C98">
@@ -9221,7 +9221,7 @@
         <v>96</v>
       </c>
       <c r="B99">
-        <f>B$2^C99*B$1</f>
+        <f t="shared" si="5"/>
         <v>194.47342754648471</v>
       </c>
       <c r="C99">
@@ -9275,7 +9275,7 @@
         <v>97</v>
       </c>
       <c r="B100">
-        <f>B$2^C100*B$1</f>
+        <f t="shared" si="5"/>
         <v>208.43661964432235</v>
       </c>
       <c r="C100">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B101">
-        <f>B$2^C101*B$1</f>
+        <f t="shared" si="5"/>
         <v>223.40236893478473</v>
       </c>
       <c r="C101">
@@ -9383,7 +9383,7 @@
         <v>99</v>
       </c>
       <c r="B102">
-        <f>B$2^C102*B$1</f>
+        <f t="shared" si="5"/>
         <v>239.44265902430229</v>
       </c>
       <c r="C102">
@@ -9437,7 +9437,7 @@
         <v>100</v>
       </c>
       <c r="B103">
-        <f>B$2^C103*B$1</f>
+        <f t="shared" ref="B103:B134" si="6">B$2^C103*B$1</f>
         <v>256.63464194224724</v>
       </c>
       <c r="C103">
@@ -9491,7 +9491,7 @@
         <v>101</v>
       </c>
       <c r="B104">
-        <f>B$2^C104*B$1</f>
+        <f t="shared" si="6"/>
         <v>275.06100923370064</v>
       </c>
       <c r="C104">
@@ -9539,19 +9539,19 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B105">
-        <f>B$2^C105*B$1</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B106">
-        <f>B$2^C106*B$1</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B107">
-        <f>B$2^C107*B$1</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
     </row>
@@ -15074,7 +15074,7 @@
         <v>1088.9999999999995</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="K17:K23" si="0">J17-J16</f>
+        <f t="shared" ref="K17:K20" si="0">J17-J16</f>
         <v>784.99999999999955</v>
       </c>
       <c r="L17" t="s">
@@ -15159,27 +15159,27 @@
         <v>1</v>
       </c>
       <c r="P18">
-        <f t="shared" ref="P18:P23" si="1">P$10*P$8*O18</f>
+        <f t="shared" ref="P18:P20" si="1">P$10*P$8*O18</f>
         <v>36</v>
       </c>
       <c r="Q18">
-        <f t="shared" ref="Q18:Q23" si="2">P18/N18</f>
+        <f t="shared" ref="Q18:Q20" si="2">P18/N18</f>
         <v>2.9950522434543867</v>
       </c>
       <c r="R18" s="10">
-        <f t="shared" ref="R18:R23" si="3">ROUND(Q18,0)</f>
+        <f t="shared" ref="R18:R20" si="3">ROUND(Q18,0)</f>
         <v>3</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18:S23" si="4">O18*6</f>
+        <f t="shared" ref="S18:S20" si="4">O18*6</f>
         <v>6</v>
       </c>
       <c r="T18">
-        <f t="shared" ref="T18:T23" si="5">K18/S18</f>
+        <f t="shared" ref="T18:T20" si="5">K18/S18</f>
         <v>459.3333333333332</v>
       </c>
       <c r="U18" s="10">
-        <f t="shared" ref="U18:U23" si="6">INT(T18)</f>
+        <f t="shared" ref="U18:U20" si="6">INT(T18)</f>
         <v>459</v>
       </c>
     </row>
@@ -15219,7 +15219,7 @@
         <v>64.126896953172889</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N23" si="9">M19-M18</f>
+        <f t="shared" ref="N19:N20" si="9">M19-M18</f>
         <v>48.103109666621485</v>
       </c>
       <c r="O19" s="10">
@@ -15887,8 +15887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -25791,7 +25791,7 @@
         <v>600</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:J11" si="0">F9*$F$8/$F$9</f>
+        <f t="shared" ref="F11:I11" si="0">F9*$F$8/$F$9</f>
         <v>600</v>
       </c>
       <c r="G11">
@@ -25811,7 +25811,7 @@
         <v>195000</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:Q11" si="1">K9*$F$8/$F$9</f>
+        <f t="shared" ref="K11:P11" si="1">K9*$F$8/$F$9</f>
         <v>22800</v>
       </c>
       <c r="L11">
@@ -26073,8 +26073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z1032223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -28289,39 +28289,39 @@
         <v>254</v>
       </c>
       <c r="R32">
-        <f>R31-R29-R28-R27-R10</f>
+        <f t="shared" ref="R32:Z32" si="21">R31-R29-R28-R27-R10</f>
         <v>1052.8</v>
       </c>
       <c r="S32">
-        <f>S31-S29-S28-S27-S10</f>
+        <f t="shared" si="21"/>
         <v>1853.5999999999997</v>
       </c>
       <c r="T32">
-        <f>T31-T29-T28-T27-T10</f>
+        <f t="shared" si="21"/>
         <v>4391.2</v>
       </c>
       <c r="U32">
-        <f>U31-U29-U28-U27-U10</f>
+        <f t="shared" si="21"/>
         <v>8199.2000000000007</v>
       </c>
       <c r="V32">
-        <f>V31-V29-V28-V27-V10</f>
+        <f t="shared" si="21"/>
         <v>19599.539999999997</v>
       </c>
       <c r="W32">
-        <f>W31-W29-W28-W27-W10</f>
+        <f t="shared" si="21"/>
         <v>36730.959999999999</v>
       </c>
       <c r="X32">
-        <f>X31-X29-X28-X27-X10</f>
+        <f t="shared" si="21"/>
         <v>81779.399999999994</v>
       </c>
       <c r="Y32">
-        <f>Y31-Y29-Y28-Y27-Y10</f>
+        <f t="shared" si="21"/>
         <v>165014.68000000002</v>
       </c>
       <c r="Z32">
-        <f>Z31-Z29-Z28-Z27-Z10</f>
+        <f t="shared" si="21"/>
         <v>230637.80000000008</v>
       </c>
     </row>
@@ -28337,11 +28337,11 @@
         <v>80</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37:E38" si="21">D37/D$7*C$7</f>
+        <f t="shared" ref="E37:E38" si="22">D37/D$7*C$7</f>
         <v>48000</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37:F38" si="22">D37/D$8*C$8</f>
+        <f t="shared" ref="F37:F38" si="23">D37/D$8*C$8</f>
         <v>96</v>
       </c>
     </row>
@@ -28357,11 +28357,11 @@
         <v>200</v>
       </c>
       <c r="E38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>120000</v>
       </c>
       <c r="F38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>240</v>
       </c>
     </row>
@@ -28377,11 +28377,11 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="E39">
-        <f>D39/D$7*C$7</f>
+        <f t="shared" ref="E39:E47" si="24">D39/D$7*C$7</f>
         <v>1000</v>
       </c>
       <c r="F39">
-        <f>D39/D$8*C$8</f>
+        <f t="shared" ref="F39:F47" si="25">D39/D$8*C$8</f>
         <v>1.9999999999999998</v>
       </c>
     </row>
@@ -28397,11 +28397,11 @@
         <v>5.6666666666666652</v>
       </c>
       <c r="E40">
-        <f>D40/D$7*C$7</f>
+        <f t="shared" si="24"/>
         <v>3399.9999999999991</v>
       </c>
       <c r="F40">
-        <f>D40/D$8*C$8</f>
+        <f t="shared" si="25"/>
         <v>6.799999999999998</v>
       </c>
     </row>
@@ -28417,11 +28417,11 @@
         <v>16.000000000000004</v>
       </c>
       <c r="E41">
-        <f>D41/D$7*C$7</f>
+        <f t="shared" si="24"/>
         <v>9600.0000000000018</v>
       </c>
       <c r="F41">
-        <f>D41/D$8*C$8</f>
+        <f t="shared" si="25"/>
         <v>19.200000000000003</v>
       </c>
     </row>
@@ -28437,11 +28437,11 @@
         <v>40.000000000000007</v>
       </c>
       <c r="E42">
-        <f>D42/D$7*C$7</f>
+        <f t="shared" si="24"/>
         <v>24000.000000000004</v>
       </c>
       <c r="F42">
-        <f>D42/D$8*C$8</f>
+        <f t="shared" si="25"/>
         <v>48.000000000000007</v>
       </c>
     </row>
@@ -28457,11 +28457,11 @@
         <v>80.083333333333357</v>
       </c>
       <c r="E43">
-        <f>D43/D$7*C$7</f>
+        <f t="shared" si="24"/>
         <v>48050.000000000015</v>
       </c>
       <c r="F43">
-        <f>D43/D$8*C$8</f>
+        <f t="shared" si="25"/>
         <v>96.100000000000023</v>
       </c>
       <c r="G43">
@@ -28480,11 +28480,11 @@
         <v>160.20833333333343</v>
       </c>
       <c r="E44">
-        <f>D44/D$7*C$7</f>
+        <f t="shared" si="24"/>
         <v>96125.000000000058</v>
       </c>
       <c r="F44">
-        <f>D44/D$8*C$8</f>
+        <f t="shared" si="25"/>
         <v>192.25000000000009</v>
       </c>
       <c r="G44">
@@ -28503,15 +28503,15 @@
         <v>320.5416666666668</v>
       </c>
       <c r="E45">
-        <f>D45/D$7*C$7</f>
+        <f t="shared" si="24"/>
         <v>192325.00000000009</v>
       </c>
       <c r="F45">
-        <f>D45/D$8*C$8</f>
+        <f t="shared" si="25"/>
         <v>384.65000000000009</v>
       </c>
       <c r="G45">
-        <f t="shared" ref="G45:G47" si="23">G44*4</f>
+        <f t="shared" ref="G45:G47" si="26">G44*4</f>
         <v>800</v>
       </c>
     </row>
@@ -28527,15 +28527,15 @@
         <v>641.25000000000045</v>
       </c>
       <c r="E46">
-        <f>D46/D$7*C$7</f>
+        <f t="shared" si="24"/>
         <v>384750.00000000029</v>
       </c>
       <c r="F46">
-        <f>D46/D$8*C$8</f>
+        <f t="shared" si="25"/>
         <v>769.50000000000045</v>
       </c>
       <c r="G46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3200</v>
       </c>
     </row>
@@ -28551,15 +28551,15 @@
         <v>1282.8333333333335</v>
       </c>
       <c r="E47">
-        <f>D47/D$7*C$7</f>
+        <f t="shared" si="24"/>
         <v>769700.00000000012</v>
       </c>
       <c r="F47">
-        <f>D47/D$8*C$8</f>
+        <f t="shared" si="25"/>
         <v>1539.4</v>
       </c>
       <c r="G47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>12800</v>
       </c>
       <c r="H47">
@@ -38682,8 +38682,8 @@
   <dimension ref="A3:BN111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" topLeftCell="BB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BN19" sqref="BN19"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -43654,7 +43654,7 @@
         <v>17449.599999999999</v>
       </c>
       <c r="S108">
-        <f t="shared" ref="S108:S139" si="26">S$9*R108</f>
+        <f t="shared" ref="S108:S111" si="26">S$9*R108</f>
         <v>10469760</v>
       </c>
       <c r="T108">
